--- a/similarities/split_global/harmonic_similarity_timestamps_118.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_118.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,724 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>schubert-winterreise_81</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'F#:7', 'B:7', 'E:7', 'A']]</t>
+          <t>['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'A:7', 'D:7', 'G:7', 'C']]</t>
+          <t>['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:20.544421', '0:00:29.751133')]</t>
+          <t>('0:00:19.260000', '0:00:22.260000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:03.480000', '0:00:10.460000')]</t>
+          <t>('0:00:57.920000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=20.544421']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-81#t=19.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=3.48']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=57.92</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.590000')]</t>
+          <t>('0:00:00.260000', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
+          <t>('0:00:14.628775', '0:00:26.430680')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['A#:7', 'D#:min/A#', 'D#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000'), ('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:00:25.940000', '0:00:45.200000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:00:34.940000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=25.94</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.94</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:29.340000', '0:00:39.820000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:01:00.680000', '0:01:03.420000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=29.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.68</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'D:maj'], ['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:43.040000', '0:00:46.660000'), ('0:00:44.160000', '0:00:47.280000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.620000', '0:00:09.860000'), ('0:00:08.180000', '0:00:10.480000')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=43.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=7.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.18']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['E:maj/B', 'B:7', 'E:maj/B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:44.820000', '0:00:47.280000')]</t>
+          <t>('0:01:24.960000', '0:01:31.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:01:36.840000', '0:01:43.060000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=84.96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=96.84</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:11.060000', '0:00:18.800000')]</t>
+          <t>('0:00:31.660000', '0:00:38.640000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:33.920000', '0:01:50.760000')]</t>
+          <t>('0:00:14.240000', '0:00:17.770000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=11.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=31.66</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=93.92']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=14.24</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:17.780000', '0:00:25.400000')]</t>
+          <t>('0:00:09.660000', '0:00:10.950000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:01:05.760000', '0:01:11.940000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=65.76</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3', 'F:min']]</t>
+          <t>['G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['A:7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:33.181700')]</t>
+          <t>('0:00:14.770000', '0:00:19.670000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:25.900000')]</t>
+          <t>('0:00:56.720000', '0:01:02.210000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=14.77</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=56.72</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:37.880000', '0:01:48.980000')]</t>
+          <t>('0:00:01.480839', '0:00:13.717755')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=1.480839</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000'), ('0:00:24.180000', '0:00:30.020000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000'), ('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:00:00.820000', '0:00:06.760000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:15.060000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:09.840000')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
+          <t>('0:00:45.480000', '0:00:48')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:00.440395', '0:00:07.142059')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1193,9 +1211,11 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
